--- a/src/attributions/attributions_ig_traj_73.xlsx
+++ b/src/attributions/attributions_ig_traj_73.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1188245216337334</v>
+        <v>0.1113102384937421</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.197318436841091</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03337156328753595</v>
+        <v>-0.01636927260969227</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.0893482582368655</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1094588786808884</v>
+        <v>0.05566710293441492</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1218551005766242</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008216764452211839</v>
+        <v>-0.02099855854309517</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.09760726711756632</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0009569821269758058</v>
+        <v>0.008362045617196508</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.02682310680915316</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.08889561448939114</v>
+        <v>-0.008676848379950331</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.004340028097492126</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,31 +2220,31 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.08270633688781494</v>
+        <v>0.02610766720867033</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08447610028511851</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06339228143670972</v>
+        <v>0.03281291651597838</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0.005172486419582826</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.01868402795722812</v>
+        <v>0.004122720217828025</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02427884877068987</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0008876416450861218</v>
+        <v>-0.01606908013989432</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.009558187960666216</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.2214516521185773</v>
+        <v>0.126249051314047</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.1086550436670298</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04190024726346529</v>
+        <v>-0.01982093522319862</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.08606256971663089</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.02748777722549823</v>
+        <v>0.03187298592046191</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1188366988278889</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.01023420095824101</v>
+        <v>-0.0421311225835585</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.03981293404679091</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,22 +2334,22 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0758736255530604</v>
+        <v>0.04636833004909312</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.05331294671680268</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01599190663974071</v>
+        <v>0.02047232979193178</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.0182817414874055</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2361,46 +2361,46 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.008419459381978411</v>
+        <v>0.02392069269616133</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.07312344088015631</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.001309776137762499</v>
+        <v>-0.01400818106140688</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.009197148926830592</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.06346067035741972</v>
+        <v>-0.02842497524408625</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.06284425463428149</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02397598074356135</v>
+        <v>-0.005411016177733139</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.04606493778585791</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,46 +2415,46 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.01432460892015992</v>
+        <v>0.01033097503792382</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.07358575104022648</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1012168015668626</v>
+        <v>0.01403898243511722</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.01560377511469216</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.06414526165700969</v>
+        <v>-0.02038419962829842</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.05534916472787847</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01743938695742784</v>
+        <v>-0.009478018091916712</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.04240461851821046</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2469,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.2167549736746032</v>
+        <v>-0.02189501852186262</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.0300193413220786</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.08227426114916221</v>
+        <v>0.005422656666762696</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.07974676180458971</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.04405637991562489</v>
+        <v>-0.01051193501313229</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01771280199423578</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0764537564144151</v>
+        <v>0.01669597249913554</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01138294176387023</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07787386443825761</v>
+        <v>0.01509704943984092</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07091756518081305</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01503918407656514</v>
+        <v>-0.01262820745371198</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.04141560984739803</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.05288243284845223</v>
+        <v>-0.01182112465370409</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.06798300205327483</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.06995973200727967</v>
+        <v>-0.005858412103696023</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.008785527510300506</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.03183084444964428</v>
+        <v>-0.008971845080107555</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.0276030975279324</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05352709773184876</v>
+        <v>-0.01444990997783941</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04349415066224779</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,55 +2598,55 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.05198869731618327</v>
+        <v>-0.02040934819080244</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.04719884276113095</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02513291320480387</v>
+        <v>-0.005091301534146465</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03867003881273349</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.03156444588989932</v>
+        <v>-0.01408762042128033</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.05488981392478536</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.02096184939969924</v>
+        <v>-0.02471885702916216</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.01017443041838587</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2655,84 +2655,84 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.004122576811786124</v>
+        <v>5.285006455389482e-05</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0416146297088431</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.03185440305794798</v>
+        <v>-0.0079752439107405</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.06289426336073492</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.04922436318850544</v>
+        <v>-0.02446047871731042</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.08975271049052624</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.009438942409479678</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.5986412522618729</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542300317083429</v>
+        <v>-0.4119290590772555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01067417490181681</v>
+        <v>-0.08428958501992513</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5316349557954407</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3776762568002086</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3349047642192336</v>
+        <v>-0.2798223570391798</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1183266146888191</v>
+        <v>-0.1004297324232794</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,34 +2759,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.4924664247582982</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.065950676470312</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0503379425615626</v>
+        <v>-0.06294594899757858</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.3061891608645918</v>
+        <v>-0.08728622689581868</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.210890245218013</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,79 +2795,79 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.1897325011232952</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1502331811785143</v>
+        <v>-0.04106135182657642</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.0002060603857659268</v>
+        <v>0.04105286842307232</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1402836306836912</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.05988103969425758</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.104439917445846</v>
+        <v>-0.04182753144371142</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1103443667474864</v>
+        <v>-0.03763824559632466</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.07286640977092161</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.6956643754603489</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.466772544277078</v>
+        <v>-0.0841006876021041</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1646176531895776</v>
+        <v>0.1153538756944155</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.4755019020808138</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,70 +2876,70 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.05631704779675577</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.2874683774488829</v>
+        <v>-0.1775933060814753</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.1486046048440683</v>
+        <v>-0.237143581580249</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.2442266564970372</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04244816559507177</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01625430274235532</v>
+        <v>0.05350728388569553</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01642942011390519</v>
+        <v>0.08103687636666876</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1932337086520233</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.1949190517115665</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1979867461081604</v>
+        <v>-0.06742332803475437</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0359779726306595</v>
+        <v>-0.01278015598554702</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,142 +2948,142 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.2376475049798361</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1658560344705098</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.2035468048917012</v>
+        <v>0.08538728480810066</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.09509116815977803</v>
+        <v>-0.04161946339686588</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.1620616621541237</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.0479265965241967</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.2572274557887062</v>
+        <v>-0.08506113238110852</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.3423935213705793</v>
+        <v>-0.09785257939859811</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.1609909142918571</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1462468204866899</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.1784687236225723</v>
+        <v>0.1146057093420463</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1380903636647609</v>
+        <v>-0.01077465540315156</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.1315897822829562</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.008602130870010638</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.006520994740348714</v>
+        <v>0.1044161911424611</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1710248937770285</v>
+        <v>0.1392338836606648</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.02392746725835721</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1026976341413352</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.08155073557166681</v>
+        <v>0.07348659150385613</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.03101506942399896</v>
+        <v>-0.1059232308694603</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.03021230301717893</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
@@ -3092,25 +3092,25 @@
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01719980584098722</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.08365169716940567</v>
+        <v>0.01618827263212546</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.05252052588249049</v>
+        <v>-0.02108720460874676</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.2181929764871851</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.06597407373793208</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.2971642425887579</v>
+        <v>0.03870074916895523</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.1134901036405128</v>
+        <v>0.0947242540474757</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3137,115 +3137,115 @@
         <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.1485646109819977</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.131286339435391</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.16209082018652</v>
+        <v>0.1303154485025055</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.2712000814644001</v>
+        <v>-0.06387863580127351</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.2199143921307131</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1495962194866843</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.1627046883290293</v>
+        <v>0.1150252861303488</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.09111219370771365</v>
+        <v>-0.02672185170445438</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.160459140408485</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.06138092164756817</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.1724899913659379</v>
+        <v>-0.0793090373703577</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0593267582033398</v>
+        <v>0.05118023515361843</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.1578515022983212</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>0.00692276023581444</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.08638957933320682</v>
+        <v>0.002281599328218854</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.1362691087683621</v>
+        <v>0.08857426759093699</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.2638541723063359</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
@@ -3254,135 +3254,135 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.07327636196009232</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.1205585358643833</v>
+        <v>-0.05487230190743134</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.03856961638477097</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.05189782253546906</v>
+        <v>0.05443221429886995</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155978701702164</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05211564319981613</v>
+        <v>-0.03602023102514559</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.01755783661972684</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05212119937114298</v>
+        <v>0.02101881342818472</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1002031450805938</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01390166324464799</v>
+        <v>-0.04526384842242909</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.02959732634745329</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.005135366438750717</v>
+        <v>0.01113641271901068</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.04526693316465091</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.08817884074257826</v>
+        <v>0.004404500425885263</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.007108281093310431</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0240458507196966</v>
+        <v>0.03106560508257816</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06371348017087887</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01836567531686417</v>
+        <v>0.03108934301769707</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.008473338477993017</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.01309237908384261</v>
+        <v>0.004105679381175024</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.004266999563531927</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.009063913153821133</v>
+        <v>-0.01036920006294871</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.004189025897504569</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1468546582672153</v>
+        <v>0.1161752890976263</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.06069570451974478</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01794429515639389</v>
+        <v>-0.01556129241602457</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01280307775267524</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01945390175569662</v>
+        <v>0.001080287649780843</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.1015320137925737</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.006694532675067769</v>
+        <v>-0.05903608910374847</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.01455911847064702</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03632461672418384</v>
+        <v>0.04434958393897587</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.02947511308949672</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03400158718287245</v>
+        <v>0.02576758511984803</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.02023019232016935</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,76 +3496,76 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.006497336285655774</v>
+        <v>0.01746081641935811</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.03615309648297784</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.0008057286766768387</v>
+        <v>-0.007946024448589811</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.008567971247036609</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03815773223617498</v>
+        <v>-0.01129315236388879</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.04571511743013049</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.008475376878467805</v>
+        <v>-0.001486153915044772</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01252870330369078</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02721147909180585</v>
+        <v>-0.01913051438702313</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.0455139775438568</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.09091510302291565</v>
+        <v>0.01311961830183533</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01179245564006036</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -3574,109 +3574,109 @@
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03911156260787788</v>
+        <v>-0.001420712343933146</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.04016948393837459</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.001839477113968408</v>
+        <v>0.0005336657076146879</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01211301484659912</v>
       </c>
       <c r="DB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.09531453463478536</v>
+        <v>-0.01351446073566557</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01625221974539669</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.001009969031280322</v>
+        <v>0.0002410484299758846</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01233508065340037</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01351059623082268</v>
+        <v>0.01049915821442943</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.007677689331826382</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07275647216653842</v>
+        <v>0.008849987586112022</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.008288948221510741</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01774032497963813</v>
+        <v>0.001166698752888318</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04863288306462663</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.004301754555997469</v>
+        <v>-0.02246493027338766</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.01017580032887849</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3688,25 +3688,25 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.037377223665772</v>
+        <v>-0.003395871046923613</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.06611777640586317</v>
+        <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.03624167635205557</v>
+        <v>0.003767584662902779</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.00228506883281636</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>-0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.007012954926595974</v>
+        <v>-0.005516271774458079</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.002600920538866467</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.02554913937615301</v>
+        <v>-0.01991012250326264</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03996727963814431</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3736,31 +3736,31 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02998281333713944</v>
+        <v>-0.003165091661319877</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.03678446479740423</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01668907740111929</v>
+        <v>-0.0002161809570979792</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01530234643799567</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
@@ -3769,46 +3769,46 @@
         <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04798061537185619</v>
+        <v>-0.007922619688496255</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.03221204203996388</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.009685244040735447</v>
+        <v>-0.01826171117387398</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01253690840660516</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.00214047060678178</v>
+        <v>0.004531307146505034</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.03596143293425426</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02088356198977658</v>
+        <v>-0.01085670806087258</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.007816934890331223</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
@@ -3823,19 +3823,19 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02485649361404032</v>
+        <v>-0.03255326651356494</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.04282334121859677</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.00918470230154623</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3844,7 +3844,7 @@
         <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,19 +3852,19 @@
         <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2459746722487689</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02330391147848315</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5630868362901509</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1033642120484994</v>
+        <v>-0.08713150743578238</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.04168610737136819</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1404824007379721</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05117028820155613</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4346449208930386</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2705602975674129</v>
+        <v>-0.1652702597236167</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,157 +3900,157 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.06165881878056265</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.06129406771759127</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.04005497032832866</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03819113983876744</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.3632603591369594</v>
+        <v>-0.01378476877306833</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.001738458985069238</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.07443812469307173</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0006527284538744409</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02051875741197234</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02552000754123149</v>
+        <v>0.03047071463553089</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0.01329807954943694</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.03715596855115226</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.005408060323005557</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1772697655571414</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.003684147619095426</v>
+        <v>-0.01746919060106185</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.009585993129639651</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.355678636923181</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.09675991646285334</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.4846635339431112</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2101321136533326</v>
+        <v>0.1306721496472585</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.0122807421198491</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.03622883637770248</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01000560179292802</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.396790292408948</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.2788243681898713</v>
+        <v>-0.1558507539109598</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.0366995335259075</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.01391843690041354</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0515397217540358</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.04765226653777791</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.2553186564727178</v>
+        <v>0.1518953939020629</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,79 +4059,79 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02853713879733118</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09872751426209114</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.006913145816055956</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.257875573765899</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.08273894213055856</v>
+        <v>0.008125470899939825</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>0.008484394657369474</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.05891302046568019</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01091793991598959</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.2252973384056238</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.08871907815775448</v>
+        <v>0.0137059411044905</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.04305985158655939</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.05569626577400773</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.006509331989599556</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.4989345760094319</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.06893484795655946</v>
+        <v>-0.07954487852159771</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>-0.001415124789539469</v>
       </c>
       <c r="CV7" t="n">
         <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.05917854045254058</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0201115892210207</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.1832910797380626</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.07021930483350976</v>
+        <v>0.02230942218505974</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,25 +4170,25 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03638606203696341</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.183072004849217</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01815273006163872</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.1780882556966886</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.232543440972275</v>
+        <v>0.07267545983124768</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0.0229147838507533</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.01950696808827701</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.0463455175290192</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.1256873233915329</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1639381400684581</v>
+        <v>-0.02845885425079861</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4224,49 +4224,49 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.03024102486856457</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.03905937057695569</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.04373094119723831</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.1287840584506563</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.05639874464149685</v>
+        <v>-0.01701530719206031</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0.01639276344484292</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.007071275818588289</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01655846715871404</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.1892850306062649</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.03228032953312671</v>
+        <v>0.05275255301825654</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4275,52 +4275,52 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.05360658777996983</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06025600523777321</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.009236381462740756</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.07976520660212985</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.01615050569416734</v>
+        <v>0.02771469801407632</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.02799096677860627</v>
       </c>
       <c r="EX7" t="n">
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.07069512274761008</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.006200335640848678</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.1583946423866184</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.08332178012426945</v>
+        <v>0.01262209790980907</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4329,25 +4329,25 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.02310023632048263</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.06369245122282419</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02225544513306118</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.05869977055824811</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.07435314491237005</v>
+        <v>-0.02416980572618913</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
@@ -4356,64 +4356,64 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.05786065531483138</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.04783974733515053</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01049676244721333</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.1606837885659667</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.07371780619715192</v>
+        <v>0.04253508229130467</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.004003616412608803</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.09788864276522836</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.02413882266428209</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.1810063446969817</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.02729222136481018</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,55 +4987,55 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.9902934886520319</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2231055214334877</v>
+        <v>-0.6083535485096003</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.004226957652993126</v>
+        <v>0.01914859909648012</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1538227322763596</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.6966959777764108</v>
       </c>
       <c r="L9" t="n">
         <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2138095361591884</v>
+        <v>-0.5492530157738214</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06348734999136006</v>
+        <v>-0.124197046078617</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1573573496555143</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,52 +5044,52 @@
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1914773165275352</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01430009736726825</v>
+        <v>-0.1159059077172937</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1376805682429421</v>
+        <v>-0.1265623777486824</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.04506492133251393</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.2000759035049972</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.100769636775662</v>
+        <v>-0.08442144588912326</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.002710755818309595</v>
+        <v>-0.006960826195590351</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01054644489729301</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -5098,43 +5098,43 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.04941591015400918</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.02990193083673964</v>
+        <v>-0.0663806176617201</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01495534234035695</v>
+        <v>-0.0491502602900863</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0005637862806341857</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>1.02361329123419</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.09532275774053686</v>
+        <v>-0.0826469997582186</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.03483494688904506</v>
+        <v>0.3138534717017393</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.198306164852648</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,52 +5152,52 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.1631446221788011</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1518353202988712</v>
+        <v>-0.1925857844298986</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.03275387020541127</v>
+        <v>-0.3955795916934759</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.02946697242857744</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.2387508130482871</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.02239712334003514</v>
+        <v>0.1287039767629226</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.02371757269142193</v>
+        <v>0.1540863925724819</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.093873112199158</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.5336043272632739</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1265374581108324</v>
+        <v>-0.04533787356158973</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.04435396944618852</v>
+        <v>0.04622649616738751</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1018476122525244</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.2334652111175453</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.05935939477688704</v>
+        <v>0.08885658518154019</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.03486397241627835</v>
+        <v>-0.07760133371261423</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.04195634905073459</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.04499575432953829</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.04843996876096895</v>
+        <v>-0.2557542429433442</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1689075576942498</v>
+        <v>-0.1295890579533202</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,115 +5278,115 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0525226597421273</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1899180798568895</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.05330297468161937</v>
+        <v>0.1444052808267127</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.03259373845642232</v>
+        <v>-0.05961201610739962</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.04478886419610201</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.060996097380529</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.008308633546952972</v>
+        <v>0.153718533328127</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.09057236915337712</v>
+        <v>0.07521704935034143</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05445111846447235</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.1508441164153921</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01024880867253861</v>
+        <v>0.04317295892305266</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.00018838819585388</v>
+        <v>-0.102863666675874</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02495580568514544</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03472344841028626</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.009141070912685914</v>
+        <v>-0.003304315542576621</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01927633011677936</v>
+        <v>-0.09759906736368064</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01377372763756125</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
@@ -5395,163 +5395,163 @@
         <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.08904704937759876</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1388181414232166</v>
+        <v>0.07981779929539468</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02135173393791652</v>
+        <v>0.06851007480949828</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.06821616249118877</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>-0.2033615670525341</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.04644434786782534</v>
+        <v>-0.1797379552451721</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.04969941530572648</v>
+        <v>-0.09418288959268022</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.03749360373227364</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.1948731720675186</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.05429875734585127</v>
+        <v>0.1291542105371431</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.03602118764880022</v>
+        <v>-0.05380067859656947</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.05870730764098339</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.0570770362935147</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02314822854412998</v>
+        <v>0.09271166366306888</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01668723110708319</v>
+        <v>-0.0471883107622686</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.03359931726245915</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.04660044002048164</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.03156152208977041</v>
+        <v>-0.1424038178040424</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1787421052469597</v>
+        <v>0.05429284176821481</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.01895093078894361</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.09966755966976777</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.009915891751605959</v>
+        <v>-0.06353037509891524</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01069283494098909</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,25 +5559,25 @@
         <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>-0.5211905024176086</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1326264285095964</v>
+        <v>0.4600812834771902</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05581711200915426</v>
+        <v>0.08697179546070925</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01447863448215585</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3771083120993055</v>
+        <v>-0.01531248036258747</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
@@ -5586,214 +5586,214 @@
         <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>-0.3542268647501196</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07829761598747975</v>
+        <v>0.4255386808446055</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1181712889417598</v>
+        <v>0.2077171185061532</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0108740060371677</v>
+        <v>-0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4670327190832927</v>
+        <v>0.006673581939415725</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>-0.1062768610997849</v>
       </c>
       <c r="U10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.05529142492290229</v>
+        <v>0.06960374259662537</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2720467931741613</v>
+        <v>0.1206106311832569</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0435005092726152</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1771941835758266</v>
+        <v>0.02265124125742549</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>-0.11394643726438</v>
       </c>
       <c r="AD10" t="n">
         <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1127219016407904</v>
+        <v>0.03172321722560068</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.06997298238102677</v>
+        <v>0.0214633181599455</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.004825041983719482</v>
+        <v>-0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.0449959303176853</v>
+        <v>4.463373662594965e-05</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0.07447546844076242</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.002017520017835492</v>
+        <v>0.01848174245948132</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.05677989335251681</v>
+        <v>0.009787114670644111</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.008910564130563724</v>
+        <v>-0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.02365897852703411</v>
+        <v>-0.0274470154739487</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>-0.7032640576837625</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.08630689540196099</v>
+        <v>0.2144211636796164</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.0006618250818346329</v>
+        <v>-0.05075656747113952</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.02892796537246549</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.3730110486290915</v>
+        <v>-0.005284724662324559</v>
       </c>
       <c r="BB10" t="n">
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>-0.05133539032295208</v>
       </c>
       <c r="BE10" t="n">
         <v>-0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.05642903967540012</v>
+        <v>0.1189106872671105</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.07183210517989776</v>
+        <v>0.3570271463164268</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001314353904080422</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01935182165038263</v>
+        <v>0.01160317061323772</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.1220860299193349</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.08343173910714614</v>
+        <v>-0.01848507362261284</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04074607824082441</v>
+        <v>-0.1090068451665048</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.07459294053489657</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0.08386917534813949</v>
+        <v>0.008929135288122203</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>-0.3528554348479592</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.02433667872743662</v>
+        <v>0.06524209439530641</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.005174658873124923</v>
+        <v>0.01218772080609661</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.01034861991640786</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.2378291835309748</v>
+        <v>0.02787896129696874</v>
       </c>
       <c r="CC10" t="n">
         <v>-0</v>
@@ -5802,106 +5802,106 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1204189618794778</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.02870891558155744</v>
+        <v>-0.07968826096860093</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001969097024923694</v>
+        <v>0.02685507980382685</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.02906715688316745</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0.09659665883504034</v>
+        <v>0.02431802138254559</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.03866424635403713</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.03148785074504619</v>
+        <v>0.07014170954409521</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.1299971918298492</v>
+        <v>-0.05003942050669247</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.04427145461785272</v>
+        <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.02738926828438516</v>
+        <v>-0.1384515634793308</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.08420698809787834</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.01647784851723844</v>
+        <v>-0.1036757469254532</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02238301467104046</v>
+        <v>0.01516591067152148</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.025658026724632</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0.1025465755570412</v>
+        <v>0.01724326617036775</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>0.1289772284911508</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.004193713737369907</v>
+        <v>-0.07639867137688872</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.03555786926593581</v>
+        <v>-0.001641272199852879</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.001632666025298848</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.003705236993632087</v>
+        <v>0.00173120142416804</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,52 +5910,52 @@
         <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.111621362478616</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0.02392207051346789</v>
+        <v>-0.03834872562179056</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.05574314213491904</v>
+        <v>0.02280193681712595</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.005226229035603542</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
         <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.05161451060669076</v>
+        <v>-0.1003962671823795</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>0.03088082622601701</v>
       </c>
       <c r="DY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.003684910249978896</v>
+        <v>0.01861282425683023</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02919090500342288</v>
+        <v>0.1562861729904459</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0.003098756312784143</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.09595850995123255</v>
+        <v>-0.025844833150511</v>
       </c>
       <c r="EE10" t="n">
         <v>0</v>
@@ -5964,79 +5964,79 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.004107308648371153</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.09573427189345281</v>
+        <v>-0.1160306214702122</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03045210340775242</v>
+        <v>-0.04665702504934502</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.06039562114836907</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.153749865668105</v>
+        <v>-0.0092137011275173</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.08843319084262564</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.004368439646301557</v>
+        <v>-0.101516291299534</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01244696467323529</v>
+        <v>0.059649153404067</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.008170862745366851</v>
+        <v>0</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.00875842575366865</v>
+        <v>0.1367889586809393</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>0.09399629029966639</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.01473072667689743</v>
+        <v>-0.1021841206678143</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.02625985562583841</v>
+        <v>0.002717068037618394</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.02650045097792898</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0.09045163346390946</v>
+        <v>0.02533518739367402</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
@@ -6045,52 +6045,52 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.03642097539331091</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01100447814522054</v>
+        <v>0.06712023769060674</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.002703198894570456</v>
+        <v>0.07608050273526262</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.02812888763401542</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.007385218894544172</v>
+        <v>0.01567484933819318</v>
       </c>
       <c r="FO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.04287984118655629</v>
       </c>
       <c r="FR10" t="n">
         <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.007016125519424049</v>
+        <v>0.01637631518362845</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.0181536994945032</v>
+        <v>0.06058358872389323</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01895251109407857</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0.1512512970503161</v>
+        <v>0.02141883979298275</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
@@ -6099,243 +6099,243 @@
         <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.1007802826019581</v>
       </c>
       <c r="GA10" t="n">
         <v>0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.01457105640459321</v>
+        <v>0.05359488476569588</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01922627852056517</v>
+        <v>0</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.05060275254400812</v>
+        <v>-0.03314262247724926</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.10862526780012</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.6368148046853399</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1300359941443072</v>
+        <v>-0.2124409656842587</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2431526017335527</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2473559404038243</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.015585757381994</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0.5642291729972219</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2017986170998611</v>
+        <v>-0.2718813836223437</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2025379539220904</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3242098858684578</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.2232398133688986</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>-0.03028339658074397</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07849046410879951</v>
+        <v>0.1570843131775306</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.04353834739706906</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1234612482954484</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.2061183731767285</v>
       </c>
       <c r="AD11" t="n">
         <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.05967274617896651</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02264200648134814</v>
+        <v>0.03616333881688029</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02695770828183337</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.01498681864079877</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.05898550724823656</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>-0.1103366840008159</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.06233553872472861</v>
+        <v>-0.06280634383043369</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.02328845590111151</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.005501480056114284</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.8720305289332277</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>-0.2659231175178626</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1030433349780532</v>
+        <v>0.1379228208810876</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1222826277029471</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1413854880453673</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0</v>
+        <v>0.1618137667481048</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0.1809473919744104</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06785661024259848</v>
+        <v>-0.2727326677987407</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.02274202645418459</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.1115152760144612</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>0.06555510665968664</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>0.07005404146727212</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.001890860457848186</v>
+        <v>0.2457816206908688</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.03628821043291423</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01149132508429174</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
@@ -6344,25 +6344,25 @@
         <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0</v>
+        <v>0.4579082619126053</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>-0.06974144536733207</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.00876106813546083</v>
+        <v>0.09499345356795505</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.1013944279085364</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.1193211830463795</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,25 +6371,25 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.2435359954115327</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>0.09594845508729634</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.05426256768003797</v>
+        <v>-0.02389754809075514</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.04767154838049981</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0.05354384493609143</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -6398,106 +6398,106 @@
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.03444061475073653</v>
       </c>
       <c r="CO11" t="n">
         <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>-0.1873564629464247</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.03994377132339956</v>
+        <v>-0.2576060345571643</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.1137036364741549</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.004637871565367796</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.2454154665839983</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>0.1450740503812486</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.04326696474091535</v>
+        <v>-0.03820442932408943</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.04594229589885748</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0.07164978119747836</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0</v>
+        <v>-0.1156735330179239</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>0.09940004028282566</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01037498542082453</v>
+        <v>0.02609288273199181</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01032235530201786</v>
+        <v>-0</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.02552817713729858</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.04751506116156382</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>-0.2283716106507426</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.07964402711108297</v>
+        <v>-0.1330282622277837</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01405700668880875</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.05012398607672172</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
@@ -6506,79 +6506,79 @@
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.1899103384884921</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0.0933137311655166</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.04055419096182327</v>
+        <v>0.04661832227035996</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.01440903988034157</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.003078502685269662</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.2378368866421187</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0.1774196217578836</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01192922608250528</v>
+        <v>0.1878575924236002</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.03085419246975012</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.05239313942472517</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>-0.2449664270648726</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0</v>
+        <v>0.106910635415193</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.02907271047520224</v>
+        <v>0.005738555773019365</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0300030687482995</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.01323569624421613</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>-0</v>
@@ -6587,109 +6587,109 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.2490821254234058</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0.1121319645984503</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.06428086601711486</v>
+        <v>-0.02389402593412945</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0563446082317309</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0.08256598338996762</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.07361216981117942</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0.1720489007890382</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.09355087314900255</v>
+        <v>0.09243840454485389</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.06281068922052774</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03090909697111308</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.09138497393770739</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>0.02802209169793045</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.008597353154015259</v>
+        <v>-0.08655610899224749</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.01084851889984322</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.07457078727829684</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.008894823968667732</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>-0.1216370278129555</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.04302256848344702</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.02184781617015139</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,241 +6697,241 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.6066138665529329</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.3170313451784009</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07151251302050435</v>
+        <v>-0.08819419162418775</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2253687903632402</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2554696996086747</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.5308203455018886</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.3194733189280368</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1529069391369004</v>
+        <v>-0.1351840295587689</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1593750374380605</v>
+        <v>-0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3731729456834191</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.1436642418041592</v>
       </c>
       <c r="U12" t="n">
         <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.009895618936870978</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07906596584463528</v>
+        <v>0.1437861102506199</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01775914636413845</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.125021320466411</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1407657325925685</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.02032552770039113</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04967672487942261</v>
+        <v>0.04508699667666013</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02140893000454496</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.002656298395392445</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.005942071012516868</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0</v>
+        <v>-0.05987088096231129</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.08126494445865015</v>
+        <v>-0.06215676234881465</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.009374077003523176</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0009849232330248995</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.4998375727761785</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>-0.06507844702840632</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0614917830450351</v>
+        <v>0.1615230236700083</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0.08942499726096624</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.119481196856265</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
         <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.07449554751060181</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>-0.1494946969177984</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.07759727224372277</v>
+        <v>-0.1467073819784359</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.01943609155691596</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1031775360920027</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.09079010993690093</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.02872359178941541</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.007536676465715248</v>
+        <v>0.2994612261803915</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.02775976898395274</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.007047781096960118</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.2280461807480862</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0</v>
+        <v>0.01764160848282272</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.05171704392342519</v>
+        <v>0.1192189373331396</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0.121245344361996</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
         <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.1169953417977839</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
@@ -6940,79 +6940,79 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.145398603114674</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0.03226544850955268</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.03196224263826035</v>
+        <v>-0.007207931263310892</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0364890430411744</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0.05992838357257611</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.05566592721864749</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>-0.1593827258296742</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.05410012908440109</v>
+        <v>-0.1668808896215442</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0.09945803685582613</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01200700396572053</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.1315285444038893</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>0.06527734924100229</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02510828576894519</v>
+        <v>-0.008612991262216886</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.03584204450102628</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0.06823247689425301</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
@@ -7021,79 +7021,79 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.07057669978353451</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.03880797028120846</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.07747306848361682</v>
+        <v>0.01634738492385569</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.05578242450322689</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.01016714811642083</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.03775590361102826</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>-0.1857822695911832</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.06887492252100308</v>
+        <v>-0.03164784836880533</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0.01431796002971832</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.07135470680094554</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>-0.09657142041081633</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>0.008685243720313818</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.08442798964439446</v>
+        <v>0.01918259206261722</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0.003588492977531554</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.002756370209417933</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
@@ -7102,52 +7102,52 @@
         <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.1473573092622562</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>-0.1192650212984031</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.04372160933972381</v>
+        <v>0.1271803764202674</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.04469915270227206</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.03296162149076785</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.1381069298003292</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.06555399373771405</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.02832062928429837</v>
+        <v>0.008333981484709135</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.02378429685533007</v>
+        <v>0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.008937093818001656</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
@@ -7156,79 +7156,79 @@
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.1353040288955496</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>0.03563599420892002</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.05271474224260541</v>
+        <v>0.01661037309829315</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.04843339272224962</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0.08070393082202085</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.05455321339319882</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>0.08401326600909939</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.1042741167313092</v>
+        <v>0.04209106255096625</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.05853360552801905</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.05716644727341685</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>0.02353570179717874</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.06770084483129152</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01703398223022771</v>
+        <v>-0.02810309528155342</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.05167952269815325</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0.05286336508107035</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,28 +7237,28 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.03254595730502925</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.1242832640566904</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0.03603278186446352</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.05876864534733418</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,79 +7266,79 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.564438317047245</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3602625612687013</v>
+        <v>-0.4801806277184326</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07177171917264763</v>
+        <v>0.1890452435384416</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1149383440559609</v>
+        <v>-0.494708805700207</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7155516985145501</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>1.209981519368658</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2720462889053717</v>
+        <v>-0.4204410705780985</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04401083305406987</v>
+        <v>0.09785050839096103</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1597402407865839</v>
+        <v>-0.3328633595427843</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.775318986959441</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.2165332750795366</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05066745612416743</v>
+        <v>-0.07499926032030499</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1367205541374883</v>
+        <v>0.1776313878391281</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0886202068670412</v>
+        <v>-0.07331923528952451</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3366603674994426</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>-0</v>
@@ -7347,25 +7347,25 @@
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.2790322122890453</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.02589248057032788</v>
+        <v>0.001372259844958498</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.00883165547424254</v>
+        <v>-0.07150099419593633</v>
       </c>
       <c r="AG13" t="n">
         <v>-0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.165803204373706</v>
+        <v>-0.138787305884505</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.04604130042702166</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -7374,295 +7374,295 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.08811771915752263</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.02830499191731101</v>
+        <v>-0.1706905907885532</v>
       </c>
       <c r="AN13" t="n">
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.2309829061390151</v>
+        <v>0.04069368815832248</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.006239179480615057</v>
+        <v>-0.08947823088425422</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.03738224005542912</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1.09545887715339</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.2162745897211718</v>
+        <v>-0.1998562410680262</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.05582477308202305</v>
+        <v>0.2856314659454346</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002617482077887252</v>
+        <v>-0.5199470463582111</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.4378613754822678</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.3989955449727013</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.1664439139120681</v>
+        <v>-0.2692374958422595</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.05050764466622911</v>
+        <v>-0.2923483248587809</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.1266380257482338</v>
+        <v>-0.1528470980650614</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1841536984328474</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.3263471204865697</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.1405440223087589</v>
+        <v>-0.1298346154554442</v>
       </c>
       <c r="BO13" t="n">
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.03225874563327067</v>
+        <v>0.08789999925109804</v>
       </c>
       <c r="BQ13" t="n">
         <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0.1019909122641809</v>
+        <v>-0.04669709556558666</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.1383078495824899</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.4914415285149547</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.06588773320113182</v>
+        <v>-0.4279927126647993</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.02326666303292768</v>
+        <v>0.1249258509080047</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.06052301748757827</v>
+        <v>-0.1579569588365553</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.3181337247079451</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.3186821127089485</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.1095926744026835</v>
+        <v>-0.03421977780409369</v>
       </c>
       <c r="CG13" t="n">
         <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.03629924795418648</v>
+        <v>-0.07194510508707196</v>
       </c>
       <c r="CI13" t="n">
         <v>-0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.04684093315588945</v>
+        <v>0.1530111888540693</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0.142334462660572</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.137263232489205</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.01880337741872781</v>
+        <v>-0.06240121999471192</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1699296962849403</v>
+        <v>0.02892581498849759</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.04392915670196629</v>
+        <v>0.179538368998953</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0.0351244369754437</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.3033212719705656</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.1067697658876556</v>
+        <v>-0.07449594305099544</v>
       </c>
       <c r="CY13" t="n">
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.08051248627760524</v>
+        <v>-0.1344011694904067</v>
       </c>
       <c r="DA13" t="n">
         <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.04103951612262486</v>
+        <v>0.1580844449782692</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0.1491586539260523</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.3536724259028195</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.05969335447847669</v>
+        <v>-0.006204648792383641</v>
       </c>
       <c r="DH13" t="n">
         <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.1278407315143094</v>
+        <v>-0.060259988363143</v>
       </c>
       <c r="DJ13" t="n">
         <v>-0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.03419521081796292</v>
+        <v>0.0210118468540431</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0.03202344247213677</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
         <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.05649437299007992</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0329325673740327</v>
+        <v>-0.1114526293266669</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.04808727467493817</v>
+        <v>0.08830062848053702</v>
       </c>
       <c r="DS13" t="n">
         <v>-0</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.07038613059417662</v>
+        <v>0.08112079857415852</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.08407015564077869</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.3829707278212361</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.03505668657029936</v>
+        <v>0.08988040317818283</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.047161654437061</v>
+        <v>0.02139334406246612</v>
       </c>
       <c r="EB13" t="n">
         <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.03729086410146557</v>
+        <v>0.01022777002649513</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0.03029459208958852</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
@@ -7671,160 +7671,160 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>-0.2094215133517111</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0672832884280295</v>
+        <v>-0.0751992598559786</v>
       </c>
       <c r="EI13" t="n">
         <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.07118768748541375</v>
+        <v>0.02883386057580396</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.004636730976548682</v>
+        <v>0.1823335743545391</v>
       </c>
       <c r="EM13" t="n">
-        <v>-0.1792197011473127</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.2395092040907817</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01586375938234648</v>
+        <v>-0.07809687534093654</v>
       </c>
       <c r="ER13" t="n">
         <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.09524318055951898</v>
+        <v>-0.2093576233575279</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.04800559842792609</v>
+        <v>0.1584953785762921</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0.0193591559258025</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.3011160281508934</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.1145837123241908</v>
+        <v>-0.04327345722886523</v>
       </c>
       <c r="FA13" t="n">
         <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.07081525855297217</v>
+        <v>-0.09248276279494379</v>
       </c>
       <c r="FC13" t="n">
         <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0482871046447433</v>
+        <v>0.1662274786517847</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0.1757685884595375</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.06651316368909085</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.09199651759668163</v>
+        <v>0.07865828543062567</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.03729430939169081</v>
+        <v>0.2314182112156442</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.07300806284682898</v>
+        <v>-0.04436717279907224</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.04279380255498432</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.01515436951711765</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.01569572564396184</v>
+        <v>0.2668790984387312</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.05959454531694896</v>
+        <v>0.0250451623023922</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0.1062902080397057</v>
+        <v>-0.006270869217737728</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.07000810547891476</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.1298720510504627</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.03372634433639413</v>
+        <v>-0.1569764348696804</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
         <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.01465352205411864</v>
+        <v>-0.04847252923683373</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0.06239317062756929</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7835,25 +7835,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2043756583830827</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2785482141613476</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0679256127028532</v>
+        <v>-0.04386629843022957</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>-0.1423386399395476</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6774199885341239</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>-0</v>
@@ -7862,25 +7862,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.1741362742858704</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2417096917895931</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1080268029696051</v>
+        <v>-0.001209294562646114</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>-0.1026009948832638</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7849453260881628</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
@@ -7889,79 +7889,79 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0.01802108781063306</v>
       </c>
       <c r="U14" t="n">
         <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1187678719366732</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2866503296106729</v>
+        <v>-0.0197006392103806</v>
       </c>
       <c r="X14" t="n">
-        <v>-0</v>
+        <v>-0.002195803080451526</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2999493216849809</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.008892809872176093</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.04267569897313746</v>
+        <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0745522915170426</v>
+        <v>0.01689364405237849</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0.008008990558974898</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.08724109458036812</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.01095924671996771</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.02042578903962109</v>
+        <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1614048976125557</v>
+        <v>0.002654918504226958</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>-0.04410392544052684</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.07370852847081757</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -7970,187 +7970,187 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.1259539729745685</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.168990172498604</v>
+        <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.07690752966106423</v>
+        <v>0.002764515257635965</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0.08132505891032485</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.4020860550401064</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
         <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0</v>
+        <v>0.03707386583091455</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.1020015237773062</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.03269671436604461</v>
+        <v>-0.04524203987361435</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>-0.03998331147352147</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1680881414650381</v>
+        <v>-0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.0207085311600753</v>
       </c>
       <c r="BN14" t="n">
         <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.03479121703628294</v>
+        <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.01842311242075246</v>
+        <v>0.02067480022039475</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0.00818180190937441</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.1379799138521679</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.0656928213542245</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.05607281279664268</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.06125075012751822</v>
+        <v>-0.007350013076157419</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0</v>
+        <v>-0.02898002076486948</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.3523558482326262</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.03897308934490779</v>
       </c>
       <c r="CF14" t="n">
         <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.07963338000127229</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.04339828251770637</v>
+        <v>-0.005626518451781404</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0.01774283698306015</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.1569736714183856</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.001975866403378715</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.001250688472607302</v>
+        <v>-0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.2385015736874893</v>
+        <v>-0.01635127963026872</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>-0.0540555691439233</v>
       </c>
       <c r="CS14" t="n">
         <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0.1287013802060286</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.03798965313096233</v>
       </c>
       <c r="CX14" t="n">
         <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.08856465522600401</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.08341800951986836</v>
+        <v>-0.005311105464013206</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>0.02437900009412021</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.1627293973656893</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
@@ -8159,241 +8159,241 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>-0.03008671881153499</v>
       </c>
       <c r="DG14" t="n">
         <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.09821585654412947</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.09542203868142127</v>
+        <v>0.0846566539949633</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>0.01629603818729655</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.06300815915343105</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
         <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.00874622247519332</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.1154360927571714</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01225521713721471</v>
+        <v>0.0241571508726516</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0.004733682220515316</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.05005731639242141</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0.04080540800192708</v>
       </c>
       <c r="DY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.01728633781970192</v>
+        <v>-0</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.05722770113975558</v>
+        <v>0.009928465526109447</v>
       </c>
       <c r="EB14" t="n">
-        <v>0</v>
+        <v>-0.004313268092767705</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0.1111612893932596</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.0443123910977594</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.1545559139999286</v>
+        <v>-0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.04535976688200519</v>
+        <v>0.009214144144704065</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0.02178922133024143</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.2242836798281439</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.03627471766878292</v>
       </c>
       <c r="EQ14" t="n">
         <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.1267054305751895</v>
+        <v>-0</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.1755636461235373</v>
+        <v>-0.009948437523649793</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0.02759587708631538</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.1283506760189314</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.03923548980168945</v>
       </c>
       <c r="EZ14" t="n">
         <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.08345785811084619</v>
+        <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.04956153206713275</v>
+        <v>-0.001741497137267833</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0.02170056017024585</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.1667093062585736</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.01463236447843329</v>
       </c>
       <c r="FI14" t="n">
         <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.09205597162547505</v>
+        <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.005905222645121033</v>
+        <v>0.02507839036728543</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>0.04223182923033963</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.07578167401543871</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>0.001433456347121325</v>
       </c>
       <c r="FR14" t="n">
         <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.08179973566929739</v>
+        <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.03454314163769837</v>
+        <v>0.03244582343008491</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0.03419933776438701</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.1707373130885163</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0.01726995570741145</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.03130016294625044</v>
+        <v>-0</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>-0.02903915527028985</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0.01478247979168471</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8410,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8437,13 +8437,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8491,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8518,13 +8518,13 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8545,13 +8545,13 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX15" t="n">
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8572,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG15" t="n">
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8599,13 +8599,13 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8626,13 +8626,13 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY15" t="n">
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8680,13 +8680,13 @@
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8734,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR15" t="n">
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8815,13 +8815,13 @@
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ15" t="n">
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8842,13 +8842,13 @@
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8869,13 +8869,13 @@
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8896,13 +8896,13 @@
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
         <v>0</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8923,13 +8923,13 @@
         <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
         <v>-0</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
